--- a/All Practice Next.xlsx
+++ b/All Practice Next.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadd Mentor\Data_Analyst_Practice_Files\Neeraj Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadd Mentor\Student_Class_Code\Jazaul_Hasan_Data_Anylytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F866C1-50F1-4276-B081-8D90955A9B39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88175E4A-99D6-47ED-9C92-F20691504D09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice Date Formule" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,10 @@
     <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -325,7 +324,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -361,7 +360,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{8E94604C-1601-4341-B1AB-C1477B696093}"/>
@@ -369,71 +367,6 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{33EE3055-F96F-42A2-BC68-7FC7D5BD15B3}"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -673,6 +606,71 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -786,7 +784,7 @@
     <cacheField name="Payment Type" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Total sales" numFmtId="0" formula="Item *Units" databaseField="0"/>
+    <cacheField name="Total sales" numFmtId="0" formula="Item*Units" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1275,7 +1273,77 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{848105FE-384B-4BFA-855B-5023E3F4C261}" name="PivotTable8" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F13C8B30-1FA5-4AAE-A9E0-6F3A0FF62570}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{848105FE-384B-4BFA-855B-5023E3F4C261}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D13:F18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0"/>
@@ -1344,8 +1412,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9703331-90ED-4F0C-9CA9-C15CEFE6327A}" name="PivotTable7" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9703331-90ED-4F0C-9CA9-C15CEFE6327A}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G9:I14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0"/>
@@ -1414,8 +1482,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F47CC0A2-CB94-463D-B4DC-6F33A7353C3C}" name="PivotTable6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F47CC0A2-CB94-463D-B4DC-6F33A7353C3C}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G17:I22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0"/>
@@ -1484,79 +1552,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77AC233B-D4D6-4316-A70E-B7424E7F4DC4}" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77AC233B-D4D6-4316-A70E-B7424E7F4DC4}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A12:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F13C8B30-1FA5-4AAE-A9E0-6F3A0FF62570}" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
@@ -1631,15 +1629,15 @@
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3754B459-EFA0-49FE-851A-61C50716CC25}" name="OrderDate" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{6D6A0230-10EC-4FC2-8D39-D12387BD856D}" name="Region" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{F8C6AD3E-0955-4DCB-923C-7F3A710D19B9}" name="Manager" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{B5074F15-7D6B-4657-9DBE-03827EC0440D}" name="SalesMan" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{A78ED080-B9C9-4125-AAAC-8B90C74F23B2}" name="Item" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{0A14E989-36B8-41B1-B6AF-645B7DE31340}" name="Units" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{29355482-7D56-439A-9B33-87C67FAFCE6A}" name="Unit_price" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{69FA73A1-FF14-470D-93B9-E1E83D4222DD}" name="Sale_amt" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9A3195EC-20A6-4C8F-B22C-56840AAF5A58}" name="Payment Type" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{3754B459-EFA0-49FE-851A-61C50716CC25}" name="OrderDate" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{6D6A0230-10EC-4FC2-8D39-D12387BD856D}" name="Region" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F8C6AD3E-0955-4DCB-923C-7F3A710D19B9}" name="Manager" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B5074F15-7D6B-4657-9DBE-03827EC0440D}" name="SalesMan" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{A78ED080-B9C9-4125-AAAC-8B90C74F23B2}" name="Item" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{0A14E989-36B8-41B1-B6AF-645B7DE31340}" name="Units" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{29355482-7D56-439A-9B33-87C67FAFCE6A}" name="Unit_price" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{69FA73A1-FF14-470D-93B9-E1E83D4222DD}" name="Sale_amt" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{9A3195EC-20A6-4C8F-B22C-56840AAF5A58}" name="Payment Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1959,11 +1957,11 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <f ca="1">TODAY()</f>
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>46044.45845150463</v>
+        <v>46049.44294976852</v>
       </c>
       <c r="C2">
         <f ca="1">YEAR(B2)</f>
@@ -1975,29 +1973,29 @@
       </c>
       <c r="E2">
         <f ca="1">DAY(B2)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <f ca="1">HOUR(B2)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <f ca="1">MINUTE(B2)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <f ca="1">SECOND(B2)</f>
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="I2" s="5">
         <f ca="1">EDATE(A2,4)</f>
-        <v>46164</v>
+        <v>46169</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I4" s="4">
         <f ca="1">EDATE(A2,3*12)</f>
-        <v>47140</v>
+        <v>47145</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2353,8 +2351,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:I25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4928,7 +4926,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5284,33 +5282,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E90F9F2-D5D1-4B77-AEC7-2F012EA9221E}">
-  <dimension ref="A64"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
-    </row>
-  </sheetData>
-  <dataConsolidate leftLabels="1" topLabels="1" link="1">
-    <dataRefs count="3">
-      <dataRef ref="A1:I25" sheet="Sheet5"/>
-      <dataRef ref="A1:I12" sheet="Sheet6"/>
-      <dataRef ref="A1:J285" sheet="Sheet7"/>
-    </dataRefs>
-  </dataConsolidate>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/All Practice Next.xlsx
+++ b/All Practice Next.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadd Mentor\Student_Class_Code\Jazaul_Hasan_Data_Anylytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88175E4A-99D6-47ED-9C92-F20691504D09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AA337A-496F-4F8B-935C-C67DAFB6F0E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice Date Formule" sheetId="1" r:id="rId1"/>
@@ -1273,6 +1273,76 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77AC233B-D4D6-4316-A70E-B7424E7F4DC4}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A12:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F13C8B30-1FA5-4AAE-A9E0-6F3A0FF62570}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
@@ -1342,7 +1412,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{848105FE-384B-4BFA-855B-5023E3F4C261}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D13:F18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
@@ -1412,7 +1482,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9703331-90ED-4F0C-9CA9-C15CEFE6327A}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G9:I14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
@@ -1482,79 +1552,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F47CC0A2-CB94-463D-B4DC-6F33A7353C3C}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G17:I22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77AC233B-D4D6-4316-A70E-B7424E7F4DC4}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A12:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
@@ -1909,8 +1909,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>46049.44294976852</v>
+        <v>46049.46202673611</v>
       </c>
       <c r="C2">
         <f ca="1">YEAR(B2)</f>
@@ -1977,15 +1977,15 @@
       </c>
       <c r="F2">
         <f ca="1">HOUR(B2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <f ca="1">MINUTE(B2)</f>
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <f ca="1">SECOND(B2)</f>
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I2" s="5">
         <f ca="1">EDATE(A2,4)</f>
@@ -2351,7 +2351,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -3700,7 +3700,7 @@
         <v>500</v>
       </c>
       <c r="F5">
-        <f t="dataTable" ref="F5:F18" dt2D="0" dtr="0" r1="C4" ca="1"/>
+        <f t="dataTable" ref="F5:F18" dt2D="0" dtr="0" r1="C4"/>
         <v>27500</v>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
         <v>500</v>
       </c>
       <c r="J8">
-        <f t="dataTable" ref="J8:Q19" dt2D="1" dtr="1" r1="C6" r2="C4"/>
+        <f t="dataTable" ref="J8:Q19" dt2D="1" dtr="1" r1="C6" r2="C4" ca="1"/>
         <v>27500</v>
       </c>
       <c r="K8">
